--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N2">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q2">
-        <v>3180.341519179059</v>
+        <v>4996.62697217431</v>
       </c>
       <c r="R2">
-        <v>3180.341519179059</v>
+        <v>44969.64274956879</v>
       </c>
       <c r="S2">
-        <v>0.2496802714563666</v>
+        <v>0.3158004580875573</v>
       </c>
       <c r="T2">
-        <v>0.2496802714563666</v>
+        <v>0.3158004580875574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N3">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q3">
-        <v>2755.083688658903</v>
+        <v>2996.260165077316</v>
       </c>
       <c r="R3">
-        <v>2755.083688658903</v>
+        <v>26966.34148569585</v>
       </c>
       <c r="S3">
-        <v>0.2162943945236824</v>
+        <v>0.1893718178183639</v>
       </c>
       <c r="T3">
-        <v>0.2162943945236824</v>
+        <v>0.1893718178183639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N4">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q4">
-        <v>2355.718277417526</v>
+        <v>2556.226401150439</v>
       </c>
       <c r="R4">
-        <v>2355.718277417526</v>
+        <v>23006.03761035396</v>
       </c>
       <c r="S4">
-        <v>0.1849412635194468</v>
+        <v>0.1615604832928991</v>
       </c>
       <c r="T4">
-        <v>0.1849412635194468</v>
+        <v>0.1615604832928992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N5">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q5">
-        <v>1061.274099265228</v>
+        <v>1548.176437845739</v>
       </c>
       <c r="R5">
-        <v>1061.274099265228</v>
+        <v>13933.58794061165</v>
       </c>
       <c r="S5">
-        <v>0.08331784608545814</v>
+        <v>0.09784897511756675</v>
       </c>
       <c r="T5">
-        <v>0.08331784608545814</v>
+        <v>0.09784897511756677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N6">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q6">
-        <v>919.3663455478654</v>
+        <v>928.3741642234123</v>
       </c>
       <c r="R6">
-        <v>919.3663455478654</v>
+        <v>8355.367478010712</v>
       </c>
       <c r="S6">
-        <v>0.0721770405284939</v>
+        <v>0.05867578027559409</v>
       </c>
       <c r="T6">
-        <v>0.0721770405284939</v>
+        <v>0.0586757802755941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N7">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q7">
-        <v>786.0988443889696</v>
+        <v>792.0322061460987</v>
       </c>
       <c r="R7">
-        <v>786.0988443889696</v>
+        <v>7128.289855314888</v>
       </c>
       <c r="S7">
-        <v>0.06171455853874399</v>
+        <v>0.05005859651199731</v>
       </c>
       <c r="T7">
-        <v>0.06171455853874399</v>
+        <v>0.05005859651199732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H8">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N8">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q8">
-        <v>644.3325893749583</v>
+        <v>949.394082508304</v>
       </c>
       <c r="R8">
-        <v>644.3325893749583</v>
+        <v>8544.546742574736</v>
       </c>
       <c r="S8">
-        <v>0.05058486167386525</v>
+        <v>0.06000429646467498</v>
       </c>
       <c r="T8">
-        <v>0.05058486167386525</v>
+        <v>0.06000429646467499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H9">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N9">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q9">
-        <v>558.1759683207016</v>
+        <v>569.3103940360593</v>
       </c>
       <c r="R9">
-        <v>558.1759683207016</v>
+        <v>5123.793546324534</v>
       </c>
       <c r="S9">
-        <v>0.04382093132145993</v>
+        <v>0.03598197028351695</v>
       </c>
       <c r="T9">
-        <v>0.04382093132145993</v>
+        <v>0.03598197028351695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H10">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N10">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q10">
-        <v>477.2651139422779</v>
+        <v>485.700900291074</v>
       </c>
       <c r="R10">
-        <v>477.2651139422779</v>
+        <v>4371.308102619666</v>
       </c>
       <c r="S10">
-        <v>0.03746883235248313</v>
+        <v>0.03069762214782946</v>
       </c>
       <c r="T10">
-        <v>0.03746883235248313</v>
+        <v>0.03069762214782947</v>
       </c>
     </row>
   </sheetData>
